--- a/阅读书单（2016）.xlsx
+++ b/阅读书单（2016）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>你的生命有什么可能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,18 @@
 绿色：技术相关
 蓝色：经济相关</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3号-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -491,13 +503,14 @@
     <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.625" style="6" customWidth="1"/>
     <col min="3" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="28.375" style="4" customWidth="1"/>
-    <col min="6" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="16.375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="5" max="5" width="11.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="16.375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
         <v>2016.11</v>
       </c>
@@ -511,14 +524,17 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -531,10 +547,13 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -547,20 +566,23 @@
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G4" s="8"/>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G5" s="8"/>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:H5"/>
+    <mergeCell ref="H1:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/阅读书单（2016）.xlsx
+++ b/阅读书单（2016）.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2016书单" sheetId="1" r:id="rId1"/>
+    <sheet name="2017书单" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>你的生命有什么可能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +54,42 @@
   </si>
   <si>
     <t>技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些API的介绍，可以参照Node官方文档或者菜鸟教程学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济学思维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软技能—代码之外的生存之道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入浅出Node.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于想如何平衡好开发工作和生活的猿猿们值得一看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做一个有趣的人，生涯四度，追求生命中重要的东西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,15 +120,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阅读时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3号-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6号-</t>
+    <t>之前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类简史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解忧杂货铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岛上书店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript高级程序设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript Ninja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不知道的JavaScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单页Web应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backbone秘笈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS基础入门必看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于闭包、正则表达式讲的很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合有一定JS基础，深入巩固JS基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良好的编码规范</t>
+  </si>
+  <si>
+    <t>JavaScript模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很经典的书，讲模式，有点难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合Backbone快速入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很温情，小说构思很好，吸引着你一直往下看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲温情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以通俗易读有趣的方式将科普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于深入理解Node.js内部原理很有帮助</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +263,35 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006600"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文新魏"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文行楷"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -182,6 +331,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,8 +347,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF006600"/>
       <color rgb="FF008000"/>
-      <color rgb="FF006600"/>
     </mruColors>
   </colors>
   <extLst>
@@ -492,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -503,17 +660,13 @@
     <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.625" style="6" customWidth="1"/>
     <col min="3" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="11.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="9" style="6"/>
-    <col min="9" max="9" width="16.375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
+    <col min="5" max="5" width="53.75" style="4" customWidth="1"/>
+    <col min="6" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="16.375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2">
-        <v>2016.11</v>
-      </c>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -524,68 +677,271 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="G2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>2016.11</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>2016.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="B18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:I5"/>
+    <mergeCell ref="G2:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>